--- a/extras/grupos/grupos.xlsx
+++ b/extras/grupos/grupos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\administrator\Documents\GitHub\AP4-ReactJS\extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\administrator\Documents\GitHub\AP4-ReactJS\extras\grupos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372ED2CD-1A33-4568-8B17-5CC0236FBBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D28E6E-2871-4344-9791-0F32293FE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{FFF354F3-EAC6-4EE5-A9B9-394E9D219D29}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{FFF354F3-EAC6-4EE5-A9B9-394E9D219D29}"/>
   </bookViews>
   <sheets>
     <sheet name="curso_126" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="curso_134" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'curso_126'!$A$2:$F$77</definedName>
-    <definedName name="DatosExternos_1" localSheetId="1" hidden="1">'curso_132'!$B$2:$F$91</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'curso_126'!$A$2:$F$78</definedName>
+    <definedName name="DatosExternos_1" localSheetId="1" hidden="1">'curso_132'!$B$2:$F$92</definedName>
     <definedName name="DatosExternos_1" localSheetId="2" hidden="1">'curso_133'!$A$2:$F$81</definedName>
     <definedName name="DatosExternos_2" localSheetId="3" hidden="1">'curso_134'!$A$2:$F$63</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="548">
   <si>
     <t>nombre</t>
   </si>
@@ -1694,6 +1694,18 @@
   </si>
   <si>
     <t>Curso 133</t>
+  </si>
+  <si>
+    <t>Vega, Luciano</t>
+  </si>
+  <si>
+    <t>cluciano.vega@gmail.com</t>
+  </si>
+  <si>
+    <t>Quiroga, Romina</t>
+  </si>
+  <si>
+    <t>quirogaro@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1766,9 +1778,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1777,83 +1788,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1862,57 +1805,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1936,12 +1828,129 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2020,12 +2029,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D4D8735-BE7C-4906-AB45-9B238B956680}" name="curso_126" displayName="curso_126" ref="A2:F77" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D4D8735-BE7C-4906-AB45-9B238B956680}" name="curso_126" displayName="curso_126" ref="A2:F78" tableType="queryTable" totalsRowShown="0" headerRowDxfId="19">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{427923F6-BF6B-4007-B8A1-196E7AA16A81}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A7CAE92D-4B29-4B0F-B791-4ABF7DDF89F3}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{FFEBBFF8-EDF7-42F5-B6E7-9736D0A75AAD}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{6A600378-3281-4309-98A2-F8FF2778EB1E}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{427923F6-BF6B-4007-B8A1-196E7AA16A81}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{A7CAE92D-4B29-4B0F-B791-4ABF7DDF89F3}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{FFEBBFF8-EDF7-42F5-B6E7-9736D0A75AAD}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6A600378-3281-4309-98A2-F8FF2778EB1E}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{EE1D7510-43A9-4BB3-8471-0743CD5E95BF}" uniqueName="5" name="asistencias" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{C9AF046B-230F-469C-8F18-518E9A354363}" uniqueName="6" name="id" queryTableFieldId="6"/>
   </tableColumns>
@@ -2034,12 +2043,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD8744A8-1ED5-42B8-B2BC-9ED44EBD8371}" name="curso_132" displayName="curso_132" ref="A2:F91" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD8744A8-1ED5-42B8-B2BC-9ED44EBD8371}" name="curso_132" displayName="curso_132" ref="A2:F92" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{88CB5128-E38B-4C0E-8A53-0287A0CF8D7E}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D0A4C499-710E-4E11-90B0-99E3348B5A13}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5B981D39-D111-4F81-80A1-5617941E5DB2}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{16DA3E0C-BC13-457C-8EC5-51E4333E7E90}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{88CB5128-E38B-4C0E-8A53-0287A0CF8D7E}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D0A4C499-710E-4E11-90B0-99E3348B5A13}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5B981D39-D111-4F81-80A1-5617941E5DB2}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{16DA3E0C-BC13-457C-8EC5-51E4333E7E90}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{B8D973FD-31E4-4259-BD5C-EF64BA8F4A7A}" uniqueName="5" name="asistencias" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{FE05D6B2-FFA0-4FBD-97F1-76FE27ACE187}" uniqueName="6" name="id" queryTableFieldId="6"/>
   </tableColumns>
@@ -2048,12 +2057,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4DF47953-7F6B-4076-9698-78BE688C899C}" name="curso_133" displayName="curso_133" ref="A2:F81" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4DF47953-7F6B-4076-9698-78BE688C899C}" name="curso_133" displayName="curso_133" ref="A2:F81" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8302D8F0-C55B-4579-B377-F19E8C6F898D}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{433E4DE6-07A8-4B96-A5AB-D4E5432365C5}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{8C22C017-605F-45B2-BD9B-8F05D5465EDC}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4377E422-246B-4B4E-AEB6-60035C8A4E2C}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8302D8F0-C55B-4579-B377-F19E8C6F898D}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{433E4DE6-07A8-4B96-A5AB-D4E5432365C5}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8C22C017-605F-45B2-BD9B-8F05D5465EDC}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4377E422-246B-4B4E-AEB6-60035C8A4E2C}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{AA585AB8-E10A-4CF5-B5E3-629D1DF971FA}" uniqueName="5" name="asistencias" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{5AE755B6-21CD-4CD3-996B-31E36C6EDDB8}" uniqueName="6" name="id" queryTableFieldId="6"/>
   </tableColumns>
@@ -2062,12 +2071,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EA6A86B-46EF-4CC2-98FC-70E432480DA8}" name="curso_134" displayName="curso_134" ref="A2:F63" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EA6A86B-46EF-4CC2-98FC-70E432480DA8}" name="curso_134" displayName="curso_134" ref="A2:F63" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{93257BF2-9083-4039-AA3C-DE3F8B449AEC}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{649C817E-5F65-461F-93BD-CEFD8B228AE8}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7AEE8F98-2C9D-4D17-A94D-20F22CEE4DB2}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F93CC7C4-9CE8-445C-84B7-12E8D915B653}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{93257BF2-9083-4039-AA3C-DE3F8B449AEC}" uniqueName="1" name=" " queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{649C817E-5F65-461F-93BD-CEFD8B228AE8}" uniqueName="2" name="nombre" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7AEE8F98-2C9D-4D17-A94D-20F22CEE4DB2}" uniqueName="3" name="dni" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F93CC7C4-9CE8-445C-84B7-12E8D915B653}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{B3D007B2-94F9-4496-831F-C86970DB2DDB}" uniqueName="5" name="asistencias" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{7FB93D05-A92C-4949-A9C2-634F145824F0}" uniqueName="6" name="id" queryTableFieldId="6"/>
   </tableColumns>
@@ -2373,74 +2382,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6C218C-C4A9-4912-9495-190537CB0678}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.06640625" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>28361935</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>82</v>
       </c>
       <c r="E4">
@@ -2451,16 +2460,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>22124929</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>84</v>
       </c>
       <c r="E5">
@@ -2471,16 +2480,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>27678855</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>132</v>
       </c>
       <c r="E6">
@@ -2491,16 +2500,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>27584437</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
       <c r="E7">
@@ -2511,16 +2520,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>28060544</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>110</v>
       </c>
       <c r="E8">
@@ -2531,16 +2540,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>27190813</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>124</v>
       </c>
       <c r="E9">
@@ -2551,27 +2560,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>26622005</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11">
@@ -2582,16 +2591,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>25477764</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
@@ -2602,16 +2611,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>28557311</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="E13">
@@ -2622,16 +2631,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>24438294</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14">
@@ -2642,16 +2651,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>17400167</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>88</v>
       </c>
       <c r="E15">
@@ -2662,16 +2671,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>22936851</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>52</v>
       </c>
       <c r="E16">
@@ -2682,27 +2691,27 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>25387571</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>80</v>
       </c>
       <c r="E18">
@@ -2713,16 +2722,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>17846564</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>90</v>
       </c>
       <c r="E19">
@@ -2733,16 +2742,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>25478945</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>126</v>
       </c>
       <c r="E20">
@@ -2753,16 +2762,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>23470268</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>70</v>
       </c>
       <c r="E21">
@@ -2773,16 +2782,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>26057002</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>72</v>
       </c>
       <c r="E22">
@@ -2793,16 +2802,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>24393561</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>116</v>
       </c>
       <c r="E23">
@@ -2813,27 +2822,27 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>16770894</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
       <c r="E25">
@@ -2844,16 +2853,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>24242777</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>114</v>
       </c>
       <c r="E26">
@@ -2864,16 +2873,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>28430341</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>46</v>
       </c>
       <c r="E27">
@@ -2884,16 +2893,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>24255423</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>48</v>
       </c>
       <c r="E28">
@@ -2904,16 +2913,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>27047018</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>112</v>
       </c>
       <c r="E29">
@@ -2924,16 +2933,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>10564273</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>120</v>
       </c>
       <c r="E30">
@@ -2944,27 +2953,27 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>16415069</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32">
@@ -2975,16 +2984,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>28449465</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>74</v>
       </c>
       <c r="E33">
@@ -2995,16 +3004,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>22073012</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>94</v>
       </c>
       <c r="E34">
@@ -3015,16 +3024,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>25340610</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35">
@@ -3035,16 +3044,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>20542289</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>36</v>
       </c>
       <c r="E36">
@@ -3055,16 +3064,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>10853611</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37">
@@ -3075,27 +3084,27 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D38" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>25549334</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>78</v>
       </c>
       <c r="E39">
@@ -3106,16 +3115,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>25427798</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40">
@@ -3126,16 +3135,16 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>23231981</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41">
@@ -3146,16 +3155,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>25851689</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="E42">
@@ -3166,16 +3175,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>28362944</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>122</v>
       </c>
       <c r="E43">
@@ -3186,16 +3195,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>23079217</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
       <c r="E44">
@@ -3206,27 +3215,27 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>28411719</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>68</v>
       </c>
       <c r="E46">
@@ -3237,16 +3246,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B47" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>18262096</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47">
@@ -3257,16 +3266,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>24270785</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>92</v>
       </c>
       <c r="E48">
@@ -3277,16 +3286,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>24679669</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>106</v>
       </c>
       <c r="E49">
@@ -3297,16 +3306,16 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>24020437</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>38</v>
       </c>
       <c r="E50">
@@ -3317,16 +3326,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>22200876</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>100</v>
       </c>
       <c r="E51">
@@ -3337,27 +3346,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D52" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>23486429</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>32</v>
       </c>
       <c r="E53">
@@ -3368,16 +3377,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>27173739</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>104</v>
       </c>
       <c r="E54">
@@ -3388,16 +3397,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B55" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>27529355</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>64</v>
       </c>
       <c r="E55">
@@ -3408,16 +3417,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>24106061</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>118</v>
       </c>
       <c r="E56">
@@ -3428,16 +3437,16 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>28627630</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>86</v>
       </c>
       <c r="E57">
@@ -3448,16 +3457,16 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B58" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>23224868</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>98</v>
       </c>
       <c r="E58">
@@ -3468,27 +3477,27 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B60" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>22467143</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>58</v>
       </c>
       <c r="E60">
@@ -3499,16 +3508,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>27544892</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>108</v>
       </c>
       <c r="E61">
@@ -3519,16 +3528,16 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B62" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>26412222</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>96</v>
       </c>
       <c r="E62">
@@ -3539,16 +3548,16 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B63" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>24840635</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>26</v>
       </c>
       <c r="E63">
@@ -3559,16 +3568,16 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>23631166</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>14</v>
       </c>
       <c r="E64">
@@ -3579,16 +3588,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B65" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>25761175</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65">
@@ -3599,27 +3608,27 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>525</v>
+      </c>
+      <c r="D66" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>26700128</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>54</v>
       </c>
       <c r="E67">
@@ -3630,16 +3639,16 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>28255234</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>6</v>
       </c>
       <c r="E68">
@@ -3650,16 +3659,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B69" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>27112882</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>30</v>
       </c>
       <c r="E69">
@@ -3670,16 +3679,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>23689403</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>128</v>
       </c>
       <c r="E70">
@@ -3690,16 +3699,16 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B71" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>28505602</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71">
@@ -3710,16 +3719,16 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B72" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>27536857</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="E72">
@@ -3730,27 +3739,27 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>525</v>
+      </c>
+      <c r="D73" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B74" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>20746139</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>102</v>
       </c>
       <c r="E74">
@@ -3761,16 +3770,16 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B75" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>28127040</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>56</v>
       </c>
       <c r="E75">
@@ -3781,16 +3790,16 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>20520745</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>130</v>
       </c>
       <c r="E76">
@@ -3801,16 +3810,16 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B77" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>16771692</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>60</v>
       </c>
       <c r="E77">
@@ -3818,6 +3827,21 @@
       </c>
       <c r="F77">
         <v>25978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C78" s="3">
+        <v>28348022</v>
+      </c>
+      <c r="D78" t="s">
+        <v>545</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78">
+        <v>21936</v>
       </c>
     </row>
   </sheetData>
@@ -3836,74 +3860,74 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C1499-3F8D-4177-A457-4253B94BA4C2}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.3984375" customWidth="1"/>
     <col min="2" max="2" width="28.06640625" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>26627727</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>220</v>
       </c>
       <c r="E4">
@@ -3914,16 +3938,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>26673161</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>244</v>
       </c>
       <c r="E5">
@@ -3934,16 +3958,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>27247889</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>146</v>
       </c>
       <c r="E6">
@@ -3954,16 +3978,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>26061287</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>258</v>
       </c>
       <c r="E7">
@@ -3974,16 +3998,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>11266094</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>226</v>
       </c>
       <c r="E8">
@@ -3994,16 +4018,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>25283578</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>214</v>
       </c>
       <c r="E9">
@@ -4014,27 +4038,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>25748773</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>208</v>
       </c>
       <c r="E11">
@@ -4045,16 +4069,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>26056809</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>176</v>
       </c>
       <c r="E12">
@@ -4065,16 +4089,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>27522838</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>198</v>
       </c>
       <c r="E13">
@@ -4085,16 +4109,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>25893714</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>186</v>
       </c>
       <c r="E14">
@@ -4105,16 +4129,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B15" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>19018934</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>278</v>
       </c>
       <c r="E15">
@@ -4125,16 +4149,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>26690663</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>252</v>
       </c>
       <c r="E16">
@@ -4145,27 +4169,27 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>27048420</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>152</v>
       </c>
       <c r="E18">
@@ -4176,16 +4200,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>25519623</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>234</v>
       </c>
       <c r="E19">
@@ -4196,16 +4220,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>27351505</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>236</v>
       </c>
       <c r="E20">
@@ -4216,16 +4240,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>23190956</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>174</v>
       </c>
       <c r="E21">
@@ -4236,16 +4260,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>20879501</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>270</v>
       </c>
       <c r="E22">
@@ -4256,16 +4280,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>28109573</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>200</v>
       </c>
       <c r="E23">
@@ -4276,27 +4300,27 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>26141170</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>260</v>
       </c>
       <c r="E25">
@@ -4307,16 +4331,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>26165883</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>272</v>
       </c>
       <c r="E26">
@@ -4327,16 +4351,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>25131771</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>184</v>
       </c>
       <c r="E27">
@@ -4347,16 +4371,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" t="s">
         <v>281</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>18306509</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>282</v>
       </c>
       <c r="E28">
@@ -4367,16 +4391,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>25772960</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>228</v>
       </c>
       <c r="E29">
@@ -4387,16 +4411,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>17318955</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>264</v>
       </c>
       <c r="E30">
@@ -4407,27 +4431,27 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>27386100</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>134</v>
       </c>
       <c r="E32">
@@ -4438,16 +4462,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>28293485</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>160</v>
       </c>
       <c r="E33">
@@ -4458,16 +4482,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>26815349</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>238</v>
       </c>
       <c r="E34">
@@ -4478,16 +4502,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>18846213</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>180</v>
       </c>
       <c r="E35">
@@ -4498,16 +4522,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>27879997</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>202</v>
       </c>
       <c r="E36">
@@ -4518,16 +4542,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>24820797</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>274</v>
       </c>
       <c r="E37">
@@ -4538,27 +4562,27 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D38" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>25254895</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>230</v>
       </c>
       <c r="E39">
@@ -4569,16 +4593,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>25430546</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>170</v>
       </c>
       <c r="E40">
@@ -4589,16 +4613,16 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>26641479</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>148</v>
       </c>
       <c r="E41">
@@ -4609,16 +4633,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>20665292</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>232</v>
       </c>
       <c r="E42">
@@ -4629,16 +4653,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>23408851</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>262</v>
       </c>
       <c r="E43">
@@ -4649,16 +4673,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B44" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>27479190</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>248</v>
       </c>
       <c r="E44">
@@ -4669,27 +4693,27 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B46" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>16070863</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>182</v>
       </c>
       <c r="E46">
@@ -4700,16 +4724,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B47" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>20984165</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>224</v>
       </c>
       <c r="E47">
@@ -4720,16 +4744,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B48" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>17046828</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>240</v>
       </c>
       <c r="E48">
@@ -4740,16 +4764,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>13538353</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>212</v>
       </c>
       <c r="E49">
@@ -4760,16 +4784,16 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B50" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>25542841</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>142</v>
       </c>
       <c r="E50">
@@ -4780,16 +4804,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>24780479</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>284</v>
       </c>
       <c r="E51">
@@ -4800,27 +4824,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D52" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B53" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>20387275</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>218</v>
       </c>
       <c r="E53">
@@ -4831,16 +4855,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>23979860</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>256</v>
       </c>
       <c r="E54">
@@ -4851,16 +4875,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B55" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>27759143</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>158</v>
       </c>
       <c r="E55">
@@ -4871,16 +4895,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B56" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>23698221</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>154</v>
       </c>
       <c r="E56">
@@ -4891,16 +4915,16 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>24859318</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>204</v>
       </c>
       <c r="E57">
@@ -4911,16 +4935,16 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B58" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>22948947</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>168</v>
       </c>
       <c r="E58">
@@ -4931,27 +4955,27 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B60" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>2575419</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>266</v>
       </c>
       <c r="E60">
@@ -4962,16 +4986,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" t="s">
         <v>267</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>22887116</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>268</v>
       </c>
       <c r="E61">
@@ -4982,16 +5006,16 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B62" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>23327737</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>156</v>
       </c>
       <c r="E62">
@@ -5002,16 +5026,16 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B63" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>26670634</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>190</v>
       </c>
       <c r="E63">
@@ -5022,16 +5046,16 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B64" t="s">
         <v>275</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>28079719</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>276</v>
       </c>
       <c r="E64">
@@ -5042,16 +5066,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B65" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>23766082</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>192</v>
       </c>
       <c r="E65">
@@ -5062,27 +5086,27 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>525</v>
+      </c>
+      <c r="D66" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>26231942</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>196</v>
       </c>
       <c r="E67">
@@ -5093,16 +5117,16 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B68" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>28089601</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>210</v>
       </c>
       <c r="E68">
@@ -5113,16 +5137,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B69" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>25636445</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>216</v>
       </c>
       <c r="E69">
@@ -5133,16 +5157,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>28544777</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>166</v>
       </c>
       <c r="E70">
@@ -5153,16 +5177,16 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B71" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>22433454</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>188</v>
       </c>
       <c r="E71">
@@ -5173,16 +5197,16 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>27972561</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>144</v>
       </c>
       <c r="E72">
@@ -5193,27 +5217,27 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>525</v>
+      </c>
+      <c r="D73" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B74" t="s">
         <v>253</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>22962605</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>254</v>
       </c>
       <c r="E74">
@@ -5224,16 +5248,16 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B75" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>27029838</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>194</v>
       </c>
       <c r="E75">
@@ -5244,16 +5268,16 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>26555662</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>206</v>
       </c>
       <c r="E76">
@@ -5264,16 +5288,16 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B77" t="s">
         <v>221</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>26739987</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>222</v>
       </c>
       <c r="E77">
@@ -5284,16 +5308,16 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B78" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>26098677</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>150</v>
       </c>
       <c r="E78">
@@ -5304,16 +5328,16 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>21476196</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>162</v>
       </c>
       <c r="E79">
@@ -5324,27 +5348,27 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>525</v>
+      </c>
+      <c r="D80" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B81" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>23274538</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>242</v>
       </c>
       <c r="E81">
@@ -5355,16 +5379,16 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B82" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>23730805</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>172</v>
       </c>
       <c r="E82">
@@ -5375,16 +5399,16 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B83" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>22326063</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>246</v>
       </c>
       <c r="E83">
@@ -5395,16 +5419,16 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B84" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>27792195</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>136</v>
       </c>
       <c r="E84">
@@ -5415,16 +5439,16 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" t="s">
         <v>137</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>21744970</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>138</v>
       </c>
       <c r="E85">
@@ -5435,16 +5459,16 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>26054685</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>140</v>
       </c>
       <c r="E86">
@@ -5455,27 +5479,27 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="B87" t="s">
+        <v>525</v>
+      </c>
+      <c r="D87" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="A88" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B88" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>26954194</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>164</v>
       </c>
       <c r="E88">
@@ -5486,16 +5510,16 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B89" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>27547856</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>178</v>
       </c>
       <c r="E89">
@@ -5506,16 +5530,16 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B90" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>27042272</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>250</v>
       </c>
       <c r="E90">
@@ -5526,16 +5550,16 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B91" t="s">
         <v>279</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>28013926</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>280</v>
       </c>
       <c r="E91">
@@ -5543,6 +5567,21 @@
       </c>
       <c r="F91">
         <v>5855</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="2"/>
+      <c r="B92" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C92" s="3">
+        <v>24605998</v>
+      </c>
+      <c r="D92" t="s">
+        <v>547</v>
+      </c>
+      <c r="F92">
+        <v>18721</v>
       </c>
     </row>
   </sheetData>
@@ -5571,64 +5610,64 @@
   <cols>
     <col min="1" max="1" width="12.3984375" customWidth="1"/>
     <col min="2" max="2" width="28.06640625" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>29155815</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>336</v>
       </c>
       <c r="E4">
@@ -5639,16 +5678,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>23988040</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>324</v>
       </c>
       <c r="E5">
@@ -5659,16 +5698,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>28860847</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>330</v>
       </c>
       <c r="E6">
@@ -5679,16 +5718,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>27295145</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>388</v>
       </c>
       <c r="E7">
@@ -5699,16 +5738,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>21307211</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>356</v>
       </c>
       <c r="E8">
@@ -5719,16 +5758,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>24519014</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>416</v>
       </c>
       <c r="E9">
@@ -5739,27 +5778,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" t="s">
         <v>419</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>17675854</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>420</v>
       </c>
       <c r="E11">
@@ -5770,16 +5809,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
         <v>401</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>26631150</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>402</v>
       </c>
       <c r="E12">
@@ -5790,16 +5829,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>26321091</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>316</v>
       </c>
       <c r="E13">
@@ -5810,16 +5849,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>26107345</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>404</v>
       </c>
       <c r="E14">
@@ -5830,16 +5869,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B15" t="s">
         <v>341</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>25106719</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>342</v>
       </c>
       <c r="E15">
@@ -5850,16 +5889,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" t="s">
         <v>379</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>22776836</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>380</v>
       </c>
       <c r="E16">
@@ -5870,27 +5909,27 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
         <v>393</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>18123292</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>394</v>
       </c>
       <c r="E18">
@@ -5901,16 +5940,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" t="s">
         <v>297</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>29321745</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>298</v>
       </c>
       <c r="E19">
@@ -5921,16 +5960,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>17219543</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>302</v>
       </c>
       <c r="E20">
@@ -5941,16 +5980,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" t="s">
         <v>397</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>18445270</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>398</v>
       </c>
       <c r="E21">
@@ -5961,16 +6000,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" t="s">
         <v>367</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>21992626</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>368</v>
       </c>
       <c r="E22">
@@ -5981,16 +6020,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>19091457</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>344</v>
       </c>
       <c r="E23">
@@ -6001,27 +6040,27 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>16995968</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>382</v>
       </c>
       <c r="E25">
@@ -6032,16 +6071,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" t="s">
         <v>309</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>28038634</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>310</v>
       </c>
       <c r="E26">
@@ -6052,16 +6091,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" t="s">
         <v>385</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>20505136</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>386</v>
       </c>
       <c r="E27">
@@ -6072,16 +6111,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>23623908</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>366</v>
       </c>
       <c r="E28">
@@ -6092,16 +6131,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" t="s">
         <v>391</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>17606845</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>392</v>
       </c>
       <c r="E29">
@@ -6112,16 +6151,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>23543250</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>296</v>
       </c>
       <c r="E30">
@@ -6132,27 +6171,27 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
         <v>407</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>25226833</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>408</v>
       </c>
       <c r="E32">
@@ -6163,16 +6202,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" t="s">
         <v>417</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>28335534</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>418</v>
       </c>
       <c r="E33">
@@ -6183,16 +6222,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34" t="s">
         <v>337</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>27649885</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>338</v>
       </c>
       <c r="E34">
@@ -6203,16 +6242,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" t="s">
         <v>345</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>22395460</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>346</v>
       </c>
       <c r="E35">
@@ -6223,16 +6262,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" t="s">
         <v>361</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>17546258</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>362</v>
       </c>
       <c r="E36">
@@ -6243,16 +6282,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>27295203</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>294</v>
       </c>
       <c r="E37">
@@ -6263,27 +6302,27 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D38" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>11704906</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>358</v>
       </c>
       <c r="E39">
@@ -6294,16 +6333,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" t="s">
         <v>395</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>27872276</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>396</v>
       </c>
       <c r="E40">
@@ -6314,16 +6353,16 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" t="s">
         <v>409</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>26922514</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>410</v>
       </c>
       <c r="E41">
@@ -6334,16 +6373,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" t="s">
         <v>311</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>28693607</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>312</v>
       </c>
       <c r="E42">
@@ -6354,16 +6393,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>25386064</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>414</v>
       </c>
       <c r="E43">
@@ -6374,16 +6413,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B44" t="s">
         <v>389</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>21669584</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>390</v>
       </c>
       <c r="E44">
@@ -6394,27 +6433,27 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B46" t="s">
         <v>405</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>26144929</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>406</v>
       </c>
       <c r="E46">
@@ -6425,16 +6464,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B47" t="s">
         <v>371</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>22781140</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>372</v>
       </c>
       <c r="E47">
@@ -6445,16 +6484,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B48" t="s">
         <v>351</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>27238487</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>352</v>
       </c>
       <c r="E48">
@@ -6465,16 +6504,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>28492517</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>308</v>
       </c>
       <c r="E49">
@@ -6485,16 +6524,16 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B50" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>27721196</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>364</v>
       </c>
       <c r="E50">
@@ -6505,16 +6544,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>28706770</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>318</v>
       </c>
       <c r="E51">
@@ -6525,27 +6564,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D52" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B53" t="s">
         <v>287</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>27660701</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>288</v>
       </c>
       <c r="E53">
@@ -6556,16 +6595,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" t="s">
         <v>333</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>27803086</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>334</v>
       </c>
       <c r="E54">
@@ -6576,16 +6615,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B55" t="s">
         <v>299</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>21669385</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>300</v>
       </c>
       <c r="E55">
@@ -6596,16 +6635,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B56" t="s">
         <v>383</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>28299300</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>384</v>
       </c>
       <c r="E56">
@@ -6616,16 +6655,16 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" t="s">
         <v>375</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>21328822</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>376</v>
       </c>
       <c r="E57">
@@ -6636,16 +6675,16 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B58" t="s">
         <v>377</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>20654068</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>378</v>
       </c>
       <c r="E58">
@@ -6656,27 +6695,27 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B60" t="s">
         <v>321</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>28496461</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>322</v>
       </c>
       <c r="E60">
@@ -6687,16 +6726,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" t="s">
         <v>359</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>28602971</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>360</v>
       </c>
       <c r="E61">
@@ -6707,16 +6746,16 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B62" t="s">
         <v>411</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>28788914</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>412</v>
       </c>
       <c r="E62">
@@ -6727,16 +6766,16 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B63" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>26949681</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>290</v>
       </c>
       <c r="E63">
@@ -6747,16 +6786,16 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B64" t="s">
         <v>313</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>24271308</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>314</v>
       </c>
       <c r="E64">
@@ -6767,16 +6806,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B65" t="s">
         <v>369</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>28139432</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>370</v>
       </c>
       <c r="E65">
@@ -6787,27 +6826,27 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>525</v>
+      </c>
+      <c r="D66" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>24803332</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>306</v>
       </c>
       <c r="E67">
@@ -6818,16 +6857,16 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B68" t="s">
         <v>347</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>26216892</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>348</v>
       </c>
       <c r="E68">
@@ -6838,16 +6877,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B69" t="s">
         <v>349</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>29322781</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>350</v>
       </c>
       <c r="E69">
@@ -6858,16 +6897,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70" t="s">
         <v>399</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>20213119</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>400</v>
       </c>
       <c r="E70">
@@ -6878,16 +6917,16 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B71" t="s">
         <v>353</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>27016688</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>354</v>
       </c>
       <c r="E71">
@@ -6898,16 +6937,16 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B72" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>26703609</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>340</v>
       </c>
       <c r="E72">
@@ -6918,16 +6957,16 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B73" t="s">
         <v>373</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>22252000</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>374</v>
       </c>
       <c r="E73">
@@ -6938,27 +6977,27 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>525</v>
+      </c>
+      <c r="D74" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B75" t="s">
         <v>285</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>23011166</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>286</v>
       </c>
       <c r="E75">
@@ -6969,16 +7008,16 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76" t="s">
         <v>303</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>20566779</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>304</v>
       </c>
       <c r="E76">
@@ -6989,16 +7028,16 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B77" t="s">
         <v>325</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>23644604</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>326</v>
       </c>
       <c r="E77">
@@ -7009,16 +7048,16 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B78" t="s">
         <v>327</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>24830411</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>328</v>
       </c>
       <c r="E78">
@@ -7029,16 +7068,16 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>23697935</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>292</v>
       </c>
       <c r="E79">
@@ -7049,16 +7088,16 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="A80" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B80" t="s">
         <v>319</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>21164296</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>320</v>
       </c>
       <c r="E80">
@@ -7069,16 +7108,16 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B81" t="s">
         <v>331</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>26793708</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>332</v>
       </c>
       <c r="E81">
@@ -7113,64 +7152,64 @@
   <cols>
     <col min="1" max="1" width="12.3984375" customWidth="1"/>
     <col min="2" max="2" width="28.06640625" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>13510492</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>422</v>
       </c>
       <c r="E4">
@@ -7181,16 +7220,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
         <v>437</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>24909032</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>438</v>
       </c>
       <c r="E5">
@@ -7201,16 +7240,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
         <v>497</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>24220385</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>498</v>
       </c>
       <c r="E6">
@@ -7221,16 +7260,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
         <v>501</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>20644779</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>502</v>
       </c>
       <c r="E7">
@@ -7241,16 +7280,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" t="s">
         <v>489</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>25307768</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>490</v>
       </c>
       <c r="E8">
@@ -7261,16 +7300,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>20635719</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>432</v>
       </c>
       <c r="E9">
@@ -7281,27 +7320,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>24997860</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>434</v>
       </c>
       <c r="E11">
@@ -7312,16 +7351,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>18877611</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>472</v>
       </c>
       <c r="E12">
@@ -7332,16 +7371,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>10537291</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>510</v>
       </c>
       <c r="E13">
@@ -7352,16 +7391,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>23687562</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>462</v>
       </c>
       <c r="E14">
@@ -7372,16 +7411,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B15" t="s">
         <v>429</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>18880363</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>430</v>
       </c>
       <c r="E15">
@@ -7392,16 +7431,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" t="s">
         <v>465</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>17223917</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>466</v>
       </c>
       <c r="E16">
@@ -7412,27 +7451,27 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
         <v>517</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>21670449</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>518</v>
       </c>
       <c r="E18">
@@ -7443,16 +7482,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" t="s">
         <v>435</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>18388935</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>436</v>
       </c>
       <c r="E19">
@@ -7463,16 +7502,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" t="s">
         <v>449</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>14568996</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>450</v>
       </c>
       <c r="E20">
@@ -7483,16 +7522,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" t="s">
         <v>425</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>24234578</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>426</v>
       </c>
       <c r="E21">
@@ -7503,16 +7542,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" t="s">
         <v>491</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>14620696</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>492</v>
       </c>
       <c r="E22">
@@ -7523,16 +7562,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" t="s">
         <v>503</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>16875503</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>504</v>
       </c>
       <c r="E23">
@@ -7543,27 +7582,27 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" t="s">
         <v>493</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>18454726</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>494</v>
       </c>
       <c r="E25">
@@ -7574,16 +7613,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" t="s">
         <v>487</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>20521480</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>488</v>
       </c>
       <c r="E26">
@@ -7594,16 +7633,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" t="s">
         <v>439</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>22639502</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>440</v>
       </c>
       <c r="E27">
@@ -7614,16 +7653,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" t="s">
         <v>441</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>20561094</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>442</v>
       </c>
       <c r="E28">
@@ -7634,16 +7673,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" t="s">
         <v>477</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>24192661</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>478</v>
       </c>
       <c r="E29">
@@ -7654,16 +7693,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" t="s">
         <v>467</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>25262567</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>468</v>
       </c>
       <c r="E30">
@@ -7674,27 +7713,27 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
         <v>481</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>24836529</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>482</v>
       </c>
       <c r="E32">
@@ -7705,16 +7744,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" t="s">
         <v>473</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>23805016</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>474</v>
       </c>
       <c r="E33">
@@ -7725,16 +7764,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34" t="s">
         <v>495</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>24572588</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>496</v>
       </c>
       <c r="E34">
@@ -7745,16 +7784,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" t="s">
         <v>511</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>25256244</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>512</v>
       </c>
       <c r="E35">
@@ -7765,16 +7804,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" t="s">
         <v>513</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>24600911</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>514</v>
       </c>
       <c r="E36">
@@ -7785,16 +7824,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" t="s">
         <v>515</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>22092359</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>516</v>
       </c>
       <c r="E37">
@@ -7805,27 +7844,27 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D38" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" t="s">
         <v>445</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>18258700</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>446</v>
       </c>
       <c r="E39">
@@ -7836,16 +7875,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" t="s">
         <v>447</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>18367300</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>448</v>
       </c>
       <c r="E40">
@@ -7856,16 +7895,16 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" t="s">
         <v>485</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>12700995</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>486</v>
       </c>
       <c r="E41">
@@ -7876,16 +7915,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" t="s">
         <v>453</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>23196253</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>454</v>
       </c>
       <c r="E42">
@@ -7896,16 +7935,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" t="s">
         <v>423</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>21974569</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>424</v>
       </c>
       <c r="E43">
@@ -7916,16 +7955,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B44" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>14797420</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>460</v>
       </c>
       <c r="E44">
@@ -7936,27 +7975,27 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D45" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B46" t="s">
         <v>469</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>18383939</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>470</v>
       </c>
       <c r="E46">
@@ -7967,16 +8006,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B47" t="s">
         <v>483</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>23997439</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>484</v>
       </c>
       <c r="E47">
@@ -7987,16 +8026,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B48" t="s">
         <v>521</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>21418801</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>522</v>
       </c>
       <c r="E48">
@@ -8007,16 +8046,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" t="s">
         <v>475</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>20948507</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>476</v>
       </c>
       <c r="E49">
@@ -8027,16 +8066,16 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B50" t="s">
         <v>427</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>24390071</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>428</v>
       </c>
       <c r="E50">
@@ -8047,16 +8086,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" t="s">
         <v>455</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>23248493</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>456</v>
       </c>
       <c r="E51">
@@ -8067,27 +8106,27 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D52" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B53" t="s">
         <v>519</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>20784683</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>520</v>
       </c>
       <c r="E53">
@@ -8098,16 +8137,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" t="s">
         <v>507</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>17315674</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>508</v>
       </c>
       <c r="E54">
@@ -8118,16 +8157,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B55" t="s">
         <v>451</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>17626756</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>452</v>
       </c>
       <c r="E55">
@@ -8138,16 +8177,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B56" t="s">
         <v>523</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>20796343</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>524</v>
       </c>
       <c r="E56">
@@ -8158,16 +8197,16 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" t="s">
         <v>443</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>25072309</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>444</v>
       </c>
       <c r="E57">
@@ -8178,16 +8217,16 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B58" t="s">
         <v>479</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>25319269</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>480</v>
       </c>
       <c r="E58">
@@ -8198,27 +8237,27 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B60" t="s">
         <v>505</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>17168120</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>506</v>
       </c>
       <c r="E60">
@@ -8229,16 +8268,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" t="s">
         <v>457</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>34190400</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>458</v>
       </c>
       <c r="E61">
@@ -8249,16 +8288,16 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B62" t="s">
         <v>499</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>22234890</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>500</v>
       </c>
       <c r="E62">
@@ -8269,16 +8308,16 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B63" t="s">
         <v>463</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>21634979</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>464</v>
       </c>
       <c r="E63">
